--- a/Resources/Clean/Clean_ParkGeocoordinates.xlsx
+++ b/Resources/Clean/Clean_ParkGeocoordinates.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Park</t>
   </si>
@@ -527,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,364 +561,403 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>34.0069361</v>
+      </c>
+      <c r="J2">
+        <v>-119.778533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>42.8684411</v>
+      </c>
+      <c r="J3">
+        <v>-122.1684785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>36.5053891</v>
+      </c>
+      <c r="J4">
+        <v>-117.0794078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>33.873415</v>
+      </c>
+      <c r="J5">
+        <v>-115.9009923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>36.8878548</v>
+      </c>
+      <c r="J6">
+        <v>-118.5551477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>40.49766</v>
+      </c>
+      <c r="J7">
+        <v>-121.4206552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>46.8799663</v>
+      </c>
+      <c r="J8">
+        <v>-121.7269094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>48.7718174</v>
+      </c>
+      <c r="J9">
+        <v>-121.2984648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <v>47.8021067</v>
+      </c>
+      <c r="J10">
+        <v>-123.6043524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>36.4905655</v>
+      </c>
+      <c r="J11">
+        <v>-121.1824925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>41.2131788</v>
+      </c>
+      <c r="J12">
+        <v>-124.0046275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>36.4863668</v>
+      </c>
+      <c r="J13">
+        <v>-118.5657516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2">
-        <v>34.0069361</v>
-      </c>
-      <c r="I2">
-        <v>-119.778533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>42.8684411</v>
-      </c>
-      <c r="I3">
-        <v>-122.1684785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4">
-        <v>36.5053891</v>
-      </c>
-      <c r="I4">
-        <v>-117.0794078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>33.873415</v>
-      </c>
-      <c r="I5">
-        <v>-115.9009923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>198</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <v>36.8878548</v>
-      </c>
-      <c r="I6">
-        <v>-118.5551477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>40.49766</v>
-      </c>
-      <c r="I7">
-        <v>-121.4206552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <v>46.8799663</v>
-      </c>
-      <c r="I8">
-        <v>-121.7269094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>262</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9">
-        <v>48.7718174</v>
-      </c>
-      <c r="I9">
-        <v>-121.2984648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>47.8021067</v>
-      </c>
-      <c r="I10">
-        <v>-123.6043524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>281</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
-        <v>36.4905655</v>
-      </c>
-      <c r="I11">
-        <v>-121.1824925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12">
-        <v>41.2131788</v>
-      </c>
-      <c r="I12">
-        <v>-124.0046275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>321</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>36.4863668</v>
-      </c>
-      <c r="I13">
-        <v>-118.5657516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -927,12 +969,15 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14">
         <v>37.8651011</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-119.5383294</v>
       </c>
     </row>

--- a/Resources/Clean/Clean_ParkGeocoordinates.xlsx
+++ b/Resources/Clean/Clean_ParkGeocoordinates.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Park</t>
   </si>
@@ -530,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,22 +558,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -585,62 +579,56 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>34.0069361</v>
+      </c>
+      <c r="I2">
+        <v>-119.778533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="I2">
-        <v>34.0069361</v>
-      </c>
-      <c r="J2">
-        <v>-119.778533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3">
+        <v>42.8684411</v>
+      </c>
+      <c r="I3">
+        <v>-122.1684785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3">
-        <v>42.8684411</v>
-      </c>
-      <c r="J3">
-        <v>-122.1684785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -649,30 +637,27 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>36.5053891</v>
       </c>
       <c r="I4">
-        <v>36.5053891</v>
-      </c>
-      <c r="J4">
         <v>-117.0794078</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
         <v>191</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -681,30 +666,27 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>33.873415</v>
       </c>
       <c r="I5">
-        <v>33.873415</v>
-      </c>
-      <c r="J5">
         <v>-115.9009923</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
         <v>198</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -713,30 +695,27 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>36.8878548</v>
       </c>
       <c r="I6">
-        <v>36.8878548</v>
-      </c>
-      <c r="J6">
         <v>-118.5551477</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
         <v>210</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -745,126 +724,114 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>40.49766</v>
+      </c>
+      <c r="I7">
+        <v>-121.4206552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="I7">
-        <v>40.49766</v>
-      </c>
-      <c r="J7">
-        <v>-121.4206552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>244</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8">
+        <v>46.8799663</v>
+      </c>
+      <c r="I8">
+        <v>-121.7269094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="I8">
-        <v>46.8799663</v>
-      </c>
-      <c r="J8">
-        <v>-121.7269094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>262</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9">
+        <v>48.7718174</v>
+      </c>
+      <c r="I9">
+        <v>-121.2984648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>265</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="I9">
-        <v>48.7718174</v>
-      </c>
-      <c r="J9">
-        <v>-121.2984648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>265</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10">
+        <v>47.8021067</v>
+      </c>
+      <c r="I10">
+        <v>-123.6043524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>281</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10">
-        <v>47.8021067</v>
-      </c>
-      <c r="J10">
-        <v>-123.6043524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>281</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -873,30 +840,27 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>36.4905655</v>
       </c>
       <c r="I11">
-        <v>36.4905655</v>
-      </c>
-      <c r="J11">
         <v>-121.1824925</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
         <v>293</v>
       </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -905,30 +869,27 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>41.2131788</v>
       </c>
       <c r="I12">
-        <v>41.2131788</v>
-      </c>
-      <c r="J12">
         <v>-124.0046275</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
         <v>321</v>
       </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -937,27 +898,24 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>36.4863668</v>
       </c>
       <c r="I13">
-        <v>36.4863668</v>
-      </c>
-      <c r="J13">
         <v>-118.5657516</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
         <v>376</v>
       </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -969,15 +927,12 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>37.8651011</v>
       </c>
       <c r="I14">
-        <v>37.8651011</v>
-      </c>
-      <c r="J14">
         <v>-119.5383294</v>
       </c>
     </row>

--- a/Resources/Clean/Clean_ParkGeocoordinates.xlsx
+++ b/Resources/Clean/Clean_ParkGeocoordinates.xlsx
@@ -756,10 +756,10 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <v>46.8799663</v>
+        <v>46.85230749999999</v>
       </c>
       <c r="I8">
-        <v>-121.7269094</v>
+        <v>-121.7603229</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/Resources/Clean/Clean_ParkGeocoordinates.xlsx
+++ b/Resources/Clean/Clean_ParkGeocoordinates.xlsx
@@ -756,10 +756,10 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <v>46.85230749999999</v>
+        <v>46.8799663</v>
       </c>
       <c r="I8">
-        <v>-121.7603229</v>
+        <v>-121.7269094</v>
       </c>
     </row>
     <row r="9" spans="1:9">
